--- a/admin/zayar_admin_setting.xlsx
+++ b/admin/zayar_admin_setting.xlsx
@@ -2032,6 +2032,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:L18"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:L26"/>
     <mergeCell ref="B25:C25"/>
@@ -2048,40 +2082,6 @@
     <mergeCell ref="D23:L23"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:L20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="37" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2893,18 +2893,38 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:L19"/>
     <mergeCell ref="B18:C18"/>
@@ -2915,38 +2935,18 @@
     <mergeCell ref="D21:L21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:L20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3295,18 +3295,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -3317,6 +3305,18 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3693,6 +3693,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A4:Q4"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:L9"/>
     <mergeCell ref="B13:C13"/>
@@ -3703,20 +3717,6 @@
     <mergeCell ref="D12:L12"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:L10"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4123,12 +4123,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A4:Q4"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="B12:C12"/>
@@ -4139,16 +4143,12 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:L8"/>
     <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="47" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4584,6 +4584,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A4:Q4"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:L8"/>
     <mergeCell ref="B11:C11"/>
@@ -4598,20 +4612,6 @@
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:L10"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5162,6 +5162,32 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:L16"/>
     <mergeCell ref="B15:C15"/>
@@ -5172,32 +5198,6 @@
     <mergeCell ref="D18:L18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5544,18 +5544,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -5566,6 +5554,18 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6174,36 +6174,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -6214,6 +6184,36 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="37" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6996,6 +6996,48 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:L24"/>
     <mergeCell ref="B23:C23"/>
@@ -7006,48 +7048,6 @@
     <mergeCell ref="D26:L26"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:L25"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="32" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7395,18 +7395,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -7417,6 +7405,18 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7793,6 +7793,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A4:Q4"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:L9"/>
     <mergeCell ref="B13:C13"/>
@@ -7803,20 +7817,6 @@
     <mergeCell ref="D12:L12"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:L10"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/admin/zayar_admin_setting.xlsx
+++ b/admin/zayar_admin_setting.xlsx
@@ -2032,24 +2032,22 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:L20"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="D19:L19"/>
@@ -2066,22 +2064,24 @@
     <mergeCell ref="D17:L17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="37" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2893,6 +2893,50 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:L28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -2903,50 +2947,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:L28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="30" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3295,6 +3295,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -3305,18 +3317,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3693,20 +3693,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A4:Q4"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:L9"/>
     <mergeCell ref="B13:C13"/>
@@ -3717,6 +3703,20 @@
     <mergeCell ref="D12:L12"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:L10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4123,6 +4123,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D9:L9"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -4133,22 +4149,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="47" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4584,22 +4584,8 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="B15:C15"/>
@@ -4610,8 +4596,22 @@
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="44" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5162,6 +5162,32 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -5172,32 +5198,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5544,6 +5544,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -5554,18 +5566,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6174,6 +6174,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -6184,36 +6214,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="37" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6996,6 +6996,48 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -7006,48 +7048,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:L25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="32" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7395,6 +7395,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:N3"/>
     <mergeCell ref="P2:Q2"/>
@@ -7405,18 +7417,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7793,20 +7793,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A4:Q4"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:L9"/>
     <mergeCell ref="B13:C13"/>
@@ -7817,6 +7803,20 @@
     <mergeCell ref="D12:L12"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:L10"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="46" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
